--- a/biology/Biologie cellulaire et moléculaire/Rhabdomyocyte/Rhabdomyocyte.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Rhabdomyocyte/Rhabdomyocyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les rhabdomyocytes sont les cellules musculaires des muscles striés squelettiques[1]. Ils se forment par fusion de myoblastes, donnant des myotubes à noyaux centraux qui, sous l'effet de l'innervation [Comment ?] vont se différencier en myofibres (à noyaux périphériques). À la suite du processus de croissance, on assiste à l'augmentation de la taille des fibres (en longueur et en épaisseur par adjonction ce cellules satellites embryonnaires) donnant ainsi les cellules musculaires striées [réf. souhaitée].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rhabdomyocytes sont les cellules musculaires des muscles striés squelettiques. Ils se forment par fusion de myoblastes, donnant des myotubes à noyaux centraux qui, sous l'effet de l'innervation [Comment ?] vont se différencier en myofibres (à noyaux périphériques). À la suite du processus de croissance, on assiste à l'augmentation de la taille des fibres (en longueur et en épaisseur par adjonction ce cellules satellites embryonnaires) donnant ainsi les cellules musculaires striées [réf. souhaitée].
 Elles ont la caractéristique de comporter un grand nombre de noyaux (en moyenne 100) situés en périphérie du cytoplasme (sous la membrane plasmique) et de former ainsi les syncytiums [réf. souhaitée]. Ce sont les unités contractiles du muscle grâce à l'organisation de leurs myofilaments d'actine et de myosine à même de « glisser » les uns par rapport aux autres, sous l'impulsion d'un influx nerveux. 
-Les rhabdomyocytes sont de grandes cellules, ayant un diamètre variant de 10 à 100 micromètres pour une longueur de 1 à 5 cm[2].
+Les rhabdomyocytes sont de grandes cellules, ayant un diamètre variant de 10 à 100 micromètres pour une longueur de 1 à 5 cm.
 </t>
         </is>
       </c>
